--- a/ai/assets/textbook/grammar/chat_20200512.xlsx
+++ b/ai/assets/textbook/grammar/chat_20200512.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\AIChatFilter\service\ai-chatfilter-service\ai\assets\textbook\grammar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B8EEC5-8A52-4724-A109-32BE27B26651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72308E39-6B9B-4B3A-ABCB-4E0B81284975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30705" yWindow="3255" windowWidth="25890" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2775" windowWidth="25890" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="720">
   <si>
     <t>发言内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2214,6 +2214,294 @@
   </si>
   <si>
     <t>车牌 ????163??</t>
+  </si>
+  <si>
+    <t>atm sang</t>
+  </si>
+  <si>
+    <t>B A TCCTV</t>
+  </si>
+  <si>
+    <t>bye无空格yao{77}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dvd  稳扌dao{65}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DVD 小晓COV</t>
+  </si>
+  <si>
+    <t>dvd 机会dao 徽{65}</t>
+  </si>
+  <si>
+    <t>dvd 恋曲dao 徽{65}</t>
+  </si>
+  <si>
+    <t>DVD不干活 COV</t>
+  </si>
+  <si>
+    <t>DVD连着啊COV</t>
+  </si>
+  <si>
+    <t>DVD连着COV</t>
+  </si>
+  <si>
+    <t>tun 财神送金 nao</t>
+  </si>
+  <si>
+    <t>tun财神嫁到nao</t>
+  </si>
+  <si>
+    <t>tun救星威nao</t>
+  </si>
+  <si>
+    <t>two前面的off后面</t>
+  </si>
+  <si>
+    <t>v,如可哥，拼，都懂的</t>
+  </si>
+  <si>
+    <t>XBB视讯</t>
+  </si>
+  <si>
+    <t>ㄨ??767薯片</t>
+  </si>
+  <si>
+    <t>ㄨ?ㄨ973</t>
+  </si>
+  <si>
+    <t>ㄨ??356</t>
+  </si>
+  <si>
+    <t>ㄨ??168</t>
+  </si>
+  <si>
+    <t>ㄨ??552</t>
+  </si>
+  <si>
+    <t>人人都有机会看你抓不抓得住了徴狺  ㄨ??947</t>
+  </si>
+  <si>
+    <t>人人看好都有钻徴狺  ㄨ??947</t>
+  </si>
+  <si>
+    <t>上分回复徴狺  ㄨ??947</t>
+  </si>
+  <si>
+    <t>上分徴狺  ㄨ??947</t>
+  </si>
+  <si>
+    <t>大师待赢钱不难徴狺  ?444 ?ㄨ机会不要错过</t>
+  </si>
+  <si>
+    <t>不上头的抱团法则 徴狺  ㄨ?ㄨ973</t>
+  </si>
+  <si>
+    <t>不要上头莱可樂这抱团 徴狺  ㄨ?ㄨ973</t>
+  </si>
+  <si>
+    <t>反正自己玩不好哪有那么多钱输不如试试 胃{65}关注A G博士</t>
+  </si>
+  <si>
+    <t>开心今天收工咯目标到了别自己瞎玩了试试吧 胃{65}关注A G博士</t>
+  </si>
+  <si>
+    <t>仔下DCD练起YOU</t>
+  </si>
+  <si>
+    <t>再下DCD联起YOU</t>
+  </si>
+  <si>
+    <t>血徴狺  ㄨ?ㄨ973</t>
+  </si>
+  <si>
+    <t>住队 DCD 练YOU 稳稳待路</t>
+  </si>
+  <si>
+    <t>我要吃肉啊 ??353?这吗</t>
+  </si>
+  <si>
+    <t>来这里徴狺  ㄨ??947</t>
+  </si>
+  <si>
+    <t>来起飞徴狺  ㄨ??947</t>
+  </si>
+  <si>
+    <t>沛雪抱团啊 徴狺  ㄨ??774</t>
+  </si>
+  <si>
+    <t>没有套路闲暇来报徴狺  ㄨ??947</t>
+  </si>
+  <si>
+    <t>走内幕服气好方法徽关注 AG名灯</t>
+  </si>
+  <si>
+    <t>走哈哈贷迎前pay连着后 nnd</t>
+  </si>
+  <si>
+    <t>鸡块DCD仔下YOU待</t>
+  </si>
+  <si>
+    <t>事DCD练起YOU转団</t>
+  </si>
+  <si>
+    <t>盲目打不如遂美女大神徴狺 EOW?O?</t>
+  </si>
+  <si>
+    <t>盲目投注不如抓住转机徴狺  ㄨ??947</t>
+  </si>
+  <si>
+    <t>腾免费消息好方法徽关注 AG名灯</t>
+  </si>
+  <si>
+    <t>腾内幕服气好方法徽关注 AG名灯</t>
+  </si>
+  <si>
+    <t>稔出好路来好方法徽关注 AG大哥</t>
+  </si>
+  <si>
+    <t>睛内幕服气好方法徽关注 AG大哥</t>
+  </si>
+  <si>
+    <t>想要団的DCD练起YOU</t>
+  </si>
+  <si>
+    <t>走哈贷迎前pay连着后 nnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈贷迎前pay连着后 nnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷迎前pay连着后 nnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷前pay连着后 nnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前pay连着后 nnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay连着后 nnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay连后 nnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay后 nnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走哈贷迎前pay后 nnd 走哈贷迎前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走哈贷迎前pay后 nnd 走哈贷迎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走哈贷迎前pay后 nnd 走哈贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走哈贷迎前pay后 nnd 走哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走哈贷迎前pay后 nnd 走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走哈贷前pay后 nnd 走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走哈前pay后 nnd 走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走前pay后 nnd 走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走pay后 nnd 走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走哈贷迎前pay后走 nnd 走哈贷迎前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走哈贷前pay后走 nnd 走哈贷迎前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走贷前pay后走 nnd 走哈贷迎前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走贷pay后走 nnd 走哈贷迎前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷pay后走 nnd 走哈贷迎前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷pay后走 nnd 走哈贷迎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷pay后走 nnd 走哈贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷pay后走 nnd 走哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷pay后走 nnd 走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走哈贷迎前pay后走 nnd 走哈贷迎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走哈贷迎前pay后走 nnd 走哈贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走哈贷迎前pay后走 nnd 走哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走哈贷迎前pay后走 nnd 走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走哈贷迎pay后走 nnd 走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走哈贷pay后走 nnd 走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走贷pay后走 nnd 走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走pay后走 nnd 走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2955,10 +3243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B682"/>
+  <dimension ref="A1:B766"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A725" workbookViewId="0">
+      <selection activeCell="A733" sqref="A733:B766"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -8417,6 +8705,681 @@
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
         <v>635</v>
+      </c>
+      <c r="B682" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A683" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="B683" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A684" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="B684" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A685" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="B685" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A686" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="B686" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A687" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="B687" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A688" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="B688" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A689" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="B689" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A690" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="B690" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A691" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="B691" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A692" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="B692" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A693" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="B693" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A694" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="B694" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A695" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="B695" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A696" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="B696" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A697" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="B697" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A698" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="B698" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A699" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B699" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A700" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="B700" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A701" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="B701" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A702" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="B702" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A703" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="B703" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A704" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="B704" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A705" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="B705" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A706" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="B706" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A707" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="B707" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A708" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="B708" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A709" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="B709" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A710" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="B710" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A711" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="B711" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A712" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="B712" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A713" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="B713" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A714" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="B714" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A715" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="B715" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A716" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="B716" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A717" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="B717" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A718" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="B718" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A719" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="B719" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A720" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="B720" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A721" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="B721" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A722" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="B722" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A723" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="B723" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A724" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="B724" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A725" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="B725" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A726" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="B726" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A727" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="B727" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A728" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="B728" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A729" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="B729" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A730" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="B730" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A731" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="B731" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A732" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="B732" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A733" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="B733" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A734" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="B734" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A735" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="B735" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A736" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="B736" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A737" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="B737" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A738" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="B738" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A739" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="B739" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A740" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="B740" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A741" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="B741" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A742" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B742" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A743" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="B743" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A744" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="B744" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A745" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="B745" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A746" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="B746" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A747" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="B747" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A748" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="B748" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A749" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="B749" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A750" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="B750" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A751" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="B751" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A752" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="B752" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A753" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="B753" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A754" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="B754" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A755" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="B755" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A756" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="B756" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A757" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="B757" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A758" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="B758" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A759" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="B759" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A760" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="B760" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A761" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="B761" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A762" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="B762" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A763" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="B763" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A764" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="B764" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A765" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="B765" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A766" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="B766" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ai/assets/textbook/grammar/chat_20200512.xlsx
+++ b/ai/assets/textbook/grammar/chat_20200512.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\AIChatFilter\service\ai-chatfilter-service\ai\assets\textbook\grammar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72308E39-6B9B-4B3A-ABCB-4E0B81284975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096F1740-69C4-4C97-8A11-C4E76A26A964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2775" windowWidth="25890" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29415" yWindow="525" windowWidth="27390" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="719">
   <si>
     <t>发言内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2148,10 +2148,6 @@
   </si>
   <si>
     <t>F K YOU</t>
-  </si>
-  <si>
-    <t>FW</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>hao box</t>
@@ -3243,10 +3239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B766"/>
+  <dimension ref="A1:B765"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A725" workbookViewId="0">
-      <selection activeCell="A733" sqref="A733:B766"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -8559,7 +8555,7 @@
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A664" s="6" t="s">
+      <c r="A664" s="1" t="s">
         <v>618</v>
       </c>
       <c r="B664" s="1">
@@ -8575,7 +8571,7 @@
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A666" s="1" t="s">
+      <c r="A666" s="6" t="s">
         <v>620</v>
       </c>
       <c r="B666" s="1">
@@ -8672,22 +8668,22 @@
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="B678" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A679" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B678" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A679" s="6" t="s">
-        <v>608</v>
-      </c>
       <c r="B679" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A680" s="1" t="s">
+      <c r="A680" s="6" t="s">
         <v>633</v>
       </c>
       <c r="B680" s="1">
@@ -8695,7 +8691,7 @@
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A681" s="6" t="s">
+      <c r="A681" s="1" t="s">
         <v>634</v>
       </c>
       <c r="B681" s="1">
@@ -8703,7 +8699,7 @@
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A682" s="1" t="s">
+      <c r="A682" s="6" t="s">
         <v>635</v>
       </c>
       <c r="B682" s="1">
@@ -9371,14 +9367,6 @@
         <v>718</v>
       </c>
       <c r="B765" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A766" s="6" t="s">
-        <v>719</v>
-      </c>
-      <c r="B766" s="1">
         <v>1</v>
       </c>
     </row>

--- a/ai/assets/textbook/grammar/chat_20200512.xlsx
+++ b/ai/assets/textbook/grammar/chat_20200512.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\AIChatFilter\service\ai-chatfilter-service\ai\assets\textbook\grammar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096F1740-69C4-4C97-8A11-C4E76A26A964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8196AC-8EA0-4C70-92C4-49522B3ED188}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29415" yWindow="525" windowWidth="27390" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30210" yWindow="1950" windowWidth="27390" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="637">
   <si>
     <t>发言内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,12 +235,6 @@
   </si>
   <si>
     <t>实事求是报 懂的来 powder3</t>
-  </si>
-  <si>
-    <t>尚车864</t>
-  </si>
-  <si>
-    <t>尚车718</t>
   </si>
   <si>
     <t>废话不多说 cooking3</t>
@@ -642,9 +636,6 @@
     <t>就暗示法乐DVD MAT 徽薪没控格</t>
   </si>
   <si>
-    <t>搜 华布哥 ，拚音咖v</t>
-  </si>
-  <si>
     <t>现在的开放DVD MAT 乐</t>
   </si>
   <si>
@@ -1266,9 +1257,6 @@
     <t>补神果然是bu?shen</t>
   </si>
   <si>
-    <t>不想 努力来阻隊 徽號 ╳??449</t>
-  </si>
-  <si>
     <t>好着 byecap</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1285,54 +1273,6 @@
   </si>
   <si>
     <t>BMWZEN</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>有点卡 ??746?徽兄弟</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以了 ??746?对吧</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃肉就来 ??183?</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒的呢 ??183?</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>连收吃肉不要求 ??183?</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>??183?</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>连收吃肉不要 ??183?</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>连收吃肉不 ??183?</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>连收吃肉 ??183?</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>连收求 ??183?</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃肉 ??183?</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>连 ??183?</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1483,37 +1423,13 @@
     <t>威cpu eye</t>
   </si>
   <si>
-    <t>阿树大圈圈徽 ╳??449</t>
-  </si>
-  <si>
-    <t>和大神轻松上分徽 ╳??449</t>
-  </si>
-  <si>
     <t>eye usb看好威 吃瓜</t>
-  </si>
-  <si>
-    <t>快递费就 ??183?</t>
-  </si>
-  <si>
-    <t>机会就在这里 ??183?</t>
-  </si>
-  <si>
-    <t>娇你玩徽 ╳??449</t>
   </si>
   <si>
     <t>dye zun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>来好没有 ??353?兄弟</t>
-  </si>
-  <si>
-    <t>兄弟你是不 ??736?</t>
-  </si>
-  <si>
-    <t>都来了吗 徽??736?</t>
-  </si>
-  <si>
     <t>? ○牛○才○华</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1521,27 +1437,6 @@
     <t>水电费水电费徽╳?╳167</t>
   </si>
   <si>
-    <t>都来了吗 ??746?兄弟们</t>
-  </si>
-  <si>
-    <t>买上的兄弟 ??746?徽薪哦</t>
-  </si>
-  <si>
-    <t>有根到来 ??183?</t>
-  </si>
-  <si>
-    <t>备注好 ??183?兄弟</t>
-  </si>
-  <si>
-    <t>不走弯路徽 ╳?╳167</t>
-  </si>
-  <si>
-    <t>每次都赢徽 ╳?╳167</t>
-  </si>
-  <si>
-    <t>换房来 ??183? 吃肉</t>
-  </si>
-  <si>
     <t>补神果然是bu?shen</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1585,14 +1480,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>外面狂欢看好这个徽 ╳??449</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>都来了没 ??353?神战绩</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>eye usb好路不等人</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1626,12 +1513,6 @@
     <t>usb box躺好専業導師可帯</t>
   </si>
   <si>
-    <t>同甘徽亻言號 ?24?6?</t>
-  </si>
-  <si>
-    <t>刚徽亻言號 ?24?6?</t>
-  </si>
-  <si>
     <t>徽軐號batpao</t>
   </si>
   <si>
@@ -1644,12 +1525,6 @@
     <t>USB box百人导论组，指路营利徽</t>
   </si>
   <si>
-    <t>现在想赚的抓好线下名师引鹿徽亻言號 ?24?6?</t>
-  </si>
-  <si>
-    <t>车牌 徽 ??163? 深夜好路烂路大师待你赢钱</t>
-  </si>
-  <si>
     <t>天BAT PAO</t>
   </si>
   <si>
@@ -1683,9 +1558,6 @@
     <t>usb box綫下帶</t>
   </si>
   <si>
-    <t>车牌徽 ??163? 好路烂路大师待你收米</t>
-  </si>
-  <si>
     <t>打电话花RUNCOC</t>
   </si>
   <si>
@@ -1713,27 +1585,9 @@
     <t>aunktv填充啊</t>
   </si>
   <si>
-    <t>车牌 徽??163? 好路烂路大师待你收米</t>
-  </si>
-  <si>
     <t>很多事aunktv</t>
   </si>
   <si>
-    <t>??163? 秋老师 不收任何费</t>
-  </si>
-  <si>
-    <t>大师稳上徽 ?24?6?拿钱你们看</t>
-  </si>
-  <si>
-    <t>??163? 秋老师 被撤了 欢迎你们来访</t>
-  </si>
-  <si>
-    <t>拿钱去玩徽亻言號 ?24?6?</t>
-  </si>
-  <si>
-    <t>奔小康 ??163? 风雨里我在这里</t>
-  </si>
-  <si>
     <t>角尖花RUNCOC</t>
   </si>
   <si>
@@ -1749,51 +1603,18 @@
     <t>雪花RUNCOC</t>
   </si>
   <si>
-    <t>车牌 ??163? 是了财运路花</t>
-  </si>
-  <si>
-    <t>发财来 ??163? 路子安排 以德服人 不收任何费</t>
-  </si>
-  <si>
-    <t>车牌 ??163? 穿越待人不套路</t>
-  </si>
-  <si>
-    <t>发财 ??163? 路子安排 不收任何费</t>
-  </si>
-  <si>
     <t>大神aunktv</t>
   </si>
   <si>
-    <t>车牌 ??163? 寄素完美不套路维依</t>
-  </si>
-  <si>
-    <t>就是 ?24?6?</t>
-  </si>
-  <si>
-    <t>来 ??163? 尽显英雄本色</t>
-  </si>
-  <si>
-    <t>吃肉懂得自然懂威 ??163?</t>
-  </si>
-  <si>
     <t>新方法真让我赚不少耶，徽关注 AG大姐姐</t>
   </si>
   <si>
     <t>莱透露个方法轻松赢，徽关注  AG大姐姐</t>
   </si>
   <si>
-    <t>晋???988</t>
-  </si>
-  <si>
-    <t>级??898?是</t>
-  </si>
-  <si>
     <t>是BAT PAO</t>
   </si>
   <si>
-    <t>来访 ??163? 不收任何费</t>
-  </si>
-  <si>
     <t xml:space="preserve"> {viplv0}{dt0-10-13-29}武汉</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2172,30 +1993,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>买到就来吧??183?</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>机会 来了 ??652?</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>尾牌了 ??183?</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩 ????248?? 奇</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>胖 ????248??</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱 ????248?? 里</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>骗到了m?m?p</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2209,9 +2006,6 @@
     <t>ga s tou</t>
   </si>
   <si>
-    <t>车牌 ????163??</t>
-  </si>
-  <si>
     <t>atm sang</t>
   </si>
   <si>
@@ -2256,48 +2050,6 @@
     <t>two前面的off后面</t>
   </si>
   <si>
-    <t>v,如可哥，拼，都懂的</t>
-  </si>
-  <si>
-    <t>XBB视讯</t>
-  </si>
-  <si>
-    <t>ㄨ??767薯片</t>
-  </si>
-  <si>
-    <t>ㄨ?ㄨ973</t>
-  </si>
-  <si>
-    <t>ㄨ??356</t>
-  </si>
-  <si>
-    <t>ㄨ??168</t>
-  </si>
-  <si>
-    <t>ㄨ??552</t>
-  </si>
-  <si>
-    <t>人人都有机会看你抓不抓得住了徴狺  ㄨ??947</t>
-  </si>
-  <si>
-    <t>人人看好都有钻徴狺  ㄨ??947</t>
-  </si>
-  <si>
-    <t>上分回复徴狺  ㄨ??947</t>
-  </si>
-  <si>
-    <t>上分徴狺  ㄨ??947</t>
-  </si>
-  <si>
-    <t>大师待赢钱不难徴狺  ?444 ?ㄨ机会不要错过</t>
-  </si>
-  <si>
-    <t>不上头的抱团法则 徴狺  ㄨ?ㄨ973</t>
-  </si>
-  <si>
-    <t>不要上头莱可樂这抱团 徴狺  ㄨ?ㄨ973</t>
-  </si>
-  <si>
     <t>反正自己玩不好哪有那么多钱输不如试试 胃{65}关注A G博士</t>
   </si>
   <si>
@@ -2310,25 +2062,7 @@
     <t>再下DCD联起YOU</t>
   </si>
   <si>
-    <t>血徴狺  ㄨ?ㄨ973</t>
-  </si>
-  <si>
     <t>住队 DCD 练YOU 稳稳待路</t>
-  </si>
-  <si>
-    <t>我要吃肉啊 ??353?这吗</t>
-  </si>
-  <si>
-    <t>来这里徴狺  ㄨ??947</t>
-  </si>
-  <si>
-    <t>来起飞徴狺  ㄨ??947</t>
-  </si>
-  <si>
-    <t>沛雪抱团啊 徴狺  ㄨ??774</t>
-  </si>
-  <si>
-    <t>没有套路闲暇来报徴狺  ㄨ??947</t>
   </si>
   <si>
     <t>走内幕服气好方法徽关注 AG名灯</t>
@@ -2581,16 +2315,13 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3239,10 +2970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B765"/>
+  <dimension ref="A1:B683"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3547,7 +3278,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B38">
@@ -3555,7 +3286,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B39">
@@ -3563,7 +3294,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B40">
@@ -3579,7 +3310,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B42">
@@ -3628,7 +3359,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -3636,7 +3367,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3644,7 +3375,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -3652,7 +3383,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -3660,15 +3391,15 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>86</v>
+      <c r="A53" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -3676,7 +3407,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -3692,15 +3423,15 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>89</v>
+      <c r="A57" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -3708,7 +3439,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3716,7 +3447,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -3724,7 +3455,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -3732,7 +3463,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -3740,7 +3471,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -3748,7 +3479,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -3756,7 +3487,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -3764,7 +3495,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -3772,7 +3503,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -3780,7 +3511,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -3788,7 +3519,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -3796,7 +3527,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -3804,7 +3535,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -3812,7 +3543,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -3852,15 +3583,15 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -3868,15 +3599,15 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>99</v>
+      <c r="A79" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -3884,7 +3615,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -3892,7 +3623,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -3900,7 +3631,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -3908,7 +3639,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -3916,7 +3647,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -3924,7 +3655,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -3932,14 +3663,14 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B87">
@@ -3948,15 +3679,15 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -3964,7 +3695,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -3972,7 +3703,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -3980,7 +3711,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -3988,7 +3719,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -3996,7 +3727,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -4004,7 +3735,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -4012,7 +3743,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -4020,7 +3751,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -4028,7 +3759,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -4036,7 +3767,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -4044,7 +3775,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -4052,7 +3783,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -4060,7 +3791,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -4068,7 +3799,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -4076,7 +3807,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -4084,7 +3815,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -4092,7 +3823,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -4100,7 +3831,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -4108,7 +3839,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -4156,7 +3887,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -4164,7 +3895,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -4172,7 +3903,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -4180,7 +3911,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -4188,7 +3919,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -4196,7 +3927,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -4204,7 +3935,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -4212,7 +3943,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -4220,7 +3951,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -4228,7 +3959,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -4236,7 +3967,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -4244,7 +3975,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -4252,7 +3983,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -4268,7 +3999,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -4276,7 +4007,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -4284,7 +4015,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -4292,7 +4023,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -4300,7 +4031,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -4348,7 +4079,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -4356,7 +4087,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -4364,7 +4095,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -4532,7 +4263,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -4540,7 +4271,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -4548,7 +4279,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -4556,7 +4287,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -4564,7 +4295,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -4572,7 +4303,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -4580,7 +4311,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -4748,7 +4479,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -4756,7 +4487,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -4764,7 +4495,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -4772,7 +4503,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -4780,7 +4511,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -4788,7 +4519,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -4796,7 +4527,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -4804,7 +4535,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -4812,7 +4543,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -4820,7 +4551,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -4828,7 +4559,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -4836,7 +4567,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -4844,7 +4575,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -4852,7 +4583,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -4860,7 +4591,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -4884,7 +4615,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -4892,7 +4623,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -4900,7 +4631,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -4908,7 +4639,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -5204,7 +4935,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -5212,7 +4943,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -5220,7 +4951,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -5348,7 +5079,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -5356,7 +5087,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -5364,7 +5095,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -5372,7 +5103,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -5428,7 +5159,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -5436,7 +5167,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -5444,7 +5175,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -5484,7 +5215,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -5492,7 +5223,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -5500,7 +5231,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -5508,7 +5239,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -5700,7 +5431,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -5708,7 +5439,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B308">
         <v>1</v>
@@ -5716,7 +5447,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B309">
         <v>1</v>
@@ -5812,7 +5543,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>297</v>
+        <v>153</v>
       </c>
       <c r="B321">
         <v>1</v>
@@ -5820,7 +5551,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>298</v>
+        <v>153</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -5828,7 +5559,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>299</v>
+        <v>153</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -5836,7 +5567,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>155</v>
+        <v>297</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -5844,7 +5575,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>155</v>
+        <v>298</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -5852,7 +5583,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>155</v>
+        <v>299</v>
       </c>
       <c r="B326">
         <v>1</v>
@@ -6395,7 +6126,7 @@
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394" s="1" t="s">
+      <c r="A394" t="s">
         <v>367</v>
       </c>
       <c r="B394">
@@ -6403,40 +6134,40 @@
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395" s="1" t="s">
+      <c r="A395" t="s">
+        <v>364</v>
+      </c>
+      <c r="B395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>358</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="B395">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396" s="1" t="s">
+      <c r="B397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="B396">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
+      <c r="B398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="B397">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
-        <v>367</v>
-      </c>
-      <c r="B398">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
-        <v>361</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -6444,7 +6175,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B400">
         <v>1</v>
@@ -6452,7 +6183,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B401">
         <v>1</v>
@@ -6460,7 +6191,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B402">
         <v>1</v>
@@ -6468,7 +6199,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B403">
         <v>1</v>
@@ -6483,7 +6214,7 @@
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" s="6" t="s">
+      <c r="A405" s="5" t="s">
         <v>377</v>
       </c>
       <c r="B405">
@@ -6491,7 +6222,7 @@
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406" s="6" t="s">
+      <c r="A406" s="5" t="s">
         <v>378</v>
       </c>
       <c r="B406">
@@ -6499,7 +6230,7 @@
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407" s="6" t="s">
+      <c r="A407" s="5" t="s">
         <v>379</v>
       </c>
       <c r="B407">
@@ -6507,7 +6238,7 @@
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408" s="6" t="s">
+      <c r="A408" s="5" t="s">
         <v>380</v>
       </c>
       <c r="B408">
@@ -6515,7 +6246,7 @@
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" s="6" t="s">
+      <c r="A409" s="5" t="s">
         <v>381</v>
       </c>
       <c r="B409">
@@ -6523,7 +6254,7 @@
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" s="6" t="s">
+      <c r="A410" s="5" t="s">
         <v>382</v>
       </c>
       <c r="B410">
@@ -6531,7 +6262,7 @@
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" s="6" t="s">
+      <c r="A411" s="5" t="s">
         <v>383</v>
       </c>
       <c r="B411">
@@ -6539,7 +6270,7 @@
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412" s="6" t="s">
+      <c r="A412" s="5" t="s">
         <v>384</v>
       </c>
       <c r="B412">
@@ -6547,7 +6278,7 @@
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413" s="6" t="s">
+      <c r="A413" s="5" t="s">
         <v>385</v>
       </c>
       <c r="B413">
@@ -6555,7 +6286,7 @@
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" s="6" t="s">
+      <c r="A414" s="5" t="s">
         <v>386</v>
       </c>
       <c r="B414">
@@ -6563,7 +6294,7 @@
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" s="6" t="s">
+      <c r="A415" s="5" t="s">
         <v>387</v>
       </c>
       <c r="B415">
@@ -6571,7 +6302,7 @@
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" s="6" t="s">
+      <c r="A416" s="5" t="s">
         <v>388</v>
       </c>
       <c r="B416">
@@ -6579,7 +6310,7 @@
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417" s="6" t="s">
+      <c r="A417" s="5" t="s">
         <v>389</v>
       </c>
       <c r="B417">
@@ -6587,7 +6318,7 @@
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418" s="6" t="s">
+      <c r="A418" s="5" t="s">
         <v>390</v>
       </c>
       <c r="B418">
@@ -6595,7 +6326,7 @@
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419" s="6" t="s">
+      <c r="A419" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B419">
@@ -6603,7 +6334,7 @@
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420" s="6" t="s">
+      <c r="A420" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B420">
@@ -6611,7 +6342,7 @@
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421" s="6" t="s">
+      <c r="A421" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B421">
@@ -6619,7 +6350,7 @@
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422" s="6" t="s">
+      <c r="A422" s="5" t="s">
         <v>394</v>
       </c>
       <c r="B422">
@@ -6627,7 +6358,7 @@
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423" s="6" t="s">
+      <c r="A423" s="5" t="s">
         <v>395</v>
       </c>
       <c r="B423">
@@ -6635,7 +6366,7 @@
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424" s="6" t="s">
+      <c r="A424" s="5" t="s">
         <v>396</v>
       </c>
       <c r="B424">
@@ -6643,7 +6374,7 @@
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425" s="6" t="s">
+      <c r="A425" s="5" t="s">
         <v>397</v>
       </c>
       <c r="B425">
@@ -6651,7 +6382,7 @@
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426" s="6" t="s">
+      <c r="A426" s="5" t="s">
         <v>398</v>
       </c>
       <c r="B426">
@@ -6659,7 +6390,7 @@
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427" s="6" t="s">
+      <c r="A427" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B427">
@@ -6667,7 +6398,7 @@
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A428" s="6" t="s">
+      <c r="A428" s="5" t="s">
         <v>400</v>
       </c>
       <c r="B428">
@@ -6675,7 +6406,7 @@
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A429" s="6" t="s">
+      <c r="A429" s="5" t="s">
         <v>401</v>
       </c>
       <c r="B429">
@@ -6683,7 +6414,7 @@
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A430" s="6" t="s">
+      <c r="A430" s="5" t="s">
         <v>402</v>
       </c>
       <c r="B430">
@@ -6691,7 +6422,7 @@
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A431" s="6" t="s">
+      <c r="A431" s="5" t="s">
         <v>403</v>
       </c>
       <c r="B431">
@@ -6699,7 +6430,7 @@
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432" s="6" t="s">
+      <c r="A432" s="5" t="s">
         <v>404</v>
       </c>
       <c r="B432">
@@ -6707,7 +6438,7 @@
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433" s="6" t="s">
+      <c r="A433" s="5" t="s">
         <v>405</v>
       </c>
       <c r="B433">
@@ -6715,7 +6446,7 @@
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434" s="6" t="s">
+      <c r="A434" s="5" t="s">
         <v>406</v>
       </c>
       <c r="B434">
@@ -6723,7 +6454,7 @@
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435" s="6" t="s">
+      <c r="A435" s="5" t="s">
         <v>407</v>
       </c>
       <c r="B435">
@@ -6731,7 +6462,7 @@
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436" s="6" t="s">
+      <c r="A436" s="5" t="s">
         <v>408</v>
       </c>
       <c r="B436">
@@ -6739,7 +6470,7 @@
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437" s="6" t="s">
+      <c r="A437" s="5" t="s">
         <v>409</v>
       </c>
       <c r="B437">
@@ -6747,7 +6478,7 @@
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438" s="6" t="s">
+      <c r="A438" s="5" t="s">
         <v>410</v>
       </c>
       <c r="B438">
@@ -6755,7 +6486,7 @@
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A439" s="6" t="s">
+      <c r="A439" s="5" t="s">
         <v>411</v>
       </c>
       <c r="B439">
@@ -6763,7 +6494,7 @@
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A440" s="6" t="s">
+      <c r="A440" s="5" t="s">
         <v>412</v>
       </c>
       <c r="B440">
@@ -6771,7 +6502,7 @@
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441" s="6" t="s">
+      <c r="A441" s="5" t="s">
         <v>413</v>
       </c>
       <c r="B441">
@@ -6779,7 +6510,7 @@
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442" s="6" t="s">
+      <c r="A442" s="5" t="s">
         <v>414</v>
       </c>
       <c r="B442">
@@ -6787,1047 +6518,1047 @@
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443" s="6" t="s">
+      <c r="A443" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="B443">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444" s="6" t="s">
+      <c r="B444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="B444">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A445" s="6" t="s">
+      <c r="B445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="B445">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446" s="6" t="s">
+      <c r="B446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B446">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447" s="6" t="s">
+      <c r="B447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B447">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448" s="6" t="s">
+      <c r="B448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B448">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449" s="6" t="s">
+      <c r="B451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B449">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450" s="6" t="s">
+      <c r="B461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B450">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A451" s="6" t="s">
+      <c r="B462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="B451">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A452" s="6" t="s">
+      <c r="B463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="B452">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A453" s="6" t="s">
+      <c r="B464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="B453">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A454" s="6" t="s">
+      <c r="B465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B454">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A455" s="6" t="s">
+      <c r="B466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B455">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A456" s="6" t="s">
+      <c r="B467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B456">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A457" s="6" t="s">
+      <c r="B468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="B457">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A458" s="6" t="s">
+      <c r="B469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B458">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A459" s="6" t="s">
+      <c r="B470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="B459">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A460" s="6" t="s">
+      <c r="B471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B460">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A461" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B461">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A462" s="6" t="s">
+      <c r="B472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="B462">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A463" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="B463">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A464" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="B464">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A465" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="B465">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A466" s="6" t="s">
+      <c r="B476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="B466">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467" s="6" t="s">
+      <c r="B477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="B467">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A468" s="6" t="s">
+      <c r="B478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="B468">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469" s="6" t="s">
+      <c r="B479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="B469">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470" s="6" t="s">
+      <c r="B480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="B470">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A471" s="6" t="s">
+      <c r="B481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="B471">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A472" s="6" t="s">
+      <c r="B484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="B472">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A473" s="6" t="s">
+      <c r="B485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="B473">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A474" s="6" t="s">
+      <c r="B486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="B474">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A475" s="6" t="s">
+      <c r="B487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="B475">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A476" s="6" t="s">
+      <c r="B488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="B476">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477" s="6" t="s">
+      <c r="B489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="B477">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A478" s="1" t="s">
+      <c r="B490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="B478">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A479" s="1" t="s">
+      <c r="B491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="B479">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A480" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B480">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B481">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482" s="1" t="s">
+      <c r="B492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="B482">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B483">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B484">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B485">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B486">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B487">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B488">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B489">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B490">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B491">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492" s="1" t="s">
+      <c r="B493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="B492">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493" s="1" t="s">
+      <c r="B494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="B493">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" s="6" t="s">
+      <c r="B495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="B494">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495" s="6" t="s">
+      <c r="B496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="B495">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496" s="6" t="s">
+      <c r="B497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B496">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A497" s="6" t="s">
+      <c r="B498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="B497">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A498" s="6" t="s">
+      <c r="B499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="B498">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A499" s="6" t="s">
+      <c r="B500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="B499">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A500" s="6" t="s">
+      <c r="B502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="B500">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A501" s="6" t="s">
+      <c r="B503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="B501">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A502" s="6" t="s">
+      <c r="B504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="B502">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A503" s="6" t="s">
+      <c r="B505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B503">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A504" s="6" t="s">
+      <c r="B507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B504">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A505" s="6" t="s">
+      <c r="B510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B505">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A506" s="6" t="s">
+      <c r="B511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B506">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A507" s="6" t="s">
+      <c r="B512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B507">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A508" s="6" t="s">
+      <c r="B513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B508">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A509" s="6" t="s">
+      <c r="B514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B509">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A510" s="6" t="s">
+      <c r="B515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B510">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A511" s="6" t="s">
+      <c r="B516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B511">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A512" s="6" t="s">
+      <c r="B517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="B512">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A513" s="6" t="s">
+      <c r="B518" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="B513">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A514" s="6" t="s">
+      <c r="B519" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="B514">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A515" s="6" t="s">
+      <c r="B520" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="B515">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A516" s="6" t="s">
+      <c r="B521" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="B516">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A517" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="B517">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A518" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="B518">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A519" s="6" t="s">
+      <c r="B522" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="B519">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A520" s="6" t="s">
+      <c r="B523" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="B520">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A521" s="6" t="s">
+      <c r="B524" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="B521">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A522" s="6" t="s">
+      <c r="B525" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="B522">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A523" s="6" t="s">
+      <c r="B526" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="B523">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A524" s="6" t="s">
+      <c r="B527" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="B524">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A525" s="6" t="s">
+      <c r="B528" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="B525">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A526" s="6" t="s">
+      <c r="B529" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="B526">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A527" s="6" t="s">
+      <c r="B530" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="B527">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A528" s="6" t="s">
+      <c r="B531" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="B528">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A529" s="6" t="s">
+      <c r="B532" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="B529">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A530" s="6" t="s">
+      <c r="B533" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="B530">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A531" s="6" t="s">
+      <c r="B534" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="B531">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A532" s="6" t="s">
+      <c r="B535" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="B532">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A533" s="6" t="s">
+      <c r="B536" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="B533">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A534" s="6" t="s">
+      <c r="B537" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="B534">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A535" s="6" t="s">
+      <c r="B538" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="B535">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A536" s="6" t="s">
+      <c r="B539" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="B536">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A537" s="6" t="s">
+      <c r="B540" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="B537">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A538" s="6" t="s">
+      <c r="B541" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="B538">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A539" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="B539">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A540" s="6" t="s">
+      <c r="B542" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="B540">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A541" s="6" t="s">
+      <c r="B543" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="B541">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A542" s="6" t="s">
+      <c r="B544" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="B542">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A543" s="6" t="s">
+      <c r="B545" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="B543">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A544" s="6" t="s">
+      <c r="B546" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="B544">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A545" s="6" t="s">
+      <c r="B547" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="B545">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A546" s="6" t="s">
+      <c r="B548" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="B546">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A547" s="6" t="s">
+      <c r="B549" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="B547">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A548" s="1" t="s">
+      <c r="B550" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="B548">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A549" s="1" t="s">
+      <c r="B551" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="B549">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A550" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B550">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A551" s="1" t="s">
+      <c r="B552" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="B551">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A552" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B552">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A553" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="B553">
-        <v>1</v>
+      <c r="B553" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A554" s="1" t="s">
+      <c r="A554" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="B554">
-        <v>1</v>
+      <c r="B554" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A555" s="1" t="s">
+      <c r="A555" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="B555">
-        <v>1</v>
+      <c r="B555" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A556" s="1" t="s">
+      <c r="A556" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="B556">
-        <v>1</v>
+      <c r="B556" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A557" s="1" t="s">
+      <c r="A557" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="B557">
-        <v>1</v>
+      <c r="B557" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A558" s="1" t="s">
+      <c r="A558" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="B558">
-        <v>1</v>
+      <c r="B558" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A559" s="1" t="s">
+      <c r="A559" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="B559">
-        <v>1</v>
+      <c r="B559" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A560" s="1" t="s">
+      <c r="A560" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="B560">
-        <v>1</v>
+      <c r="B560" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A561" s="1" t="s">
+      <c r="A561" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="B561">
-        <v>1</v>
+      <c r="B561" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A562" s="1" t="s">
+      <c r="A562" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="B562">
-        <v>1</v>
+      <c r="B562" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A563" s="1" t="s">
+      <c r="A563" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="B563">
-        <v>1</v>
+      <c r="B563" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A564" s="1" t="s">
+      <c r="A564" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="B564">
-        <v>1</v>
+      <c r="B564" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A565" s="1" t="s">
+      <c r="A565" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="B565">
-        <v>1</v>
+      <c r="B565" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A566" s="1" t="s">
+      <c r="A566" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="B566">
-        <v>1</v>
+      <c r="B566" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A567" s="1" t="s">
+      <c r="A567" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="B567">
-        <v>1</v>
+      <c r="B567" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A568" s="1" t="s">
+      <c r="A568" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="B568">
-        <v>1</v>
+      <c r="B568" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A569" s="1" t="s">
+      <c r="A569" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="B569">
-        <v>1</v>
+      <c r="B569" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A570" s="1" t="s">
+      <c r="A570" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="B570">
-        <v>1</v>
+      <c r="B570" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A571" s="1" t="s">
+      <c r="A571" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="B571">
-        <v>1</v>
+      <c r="B571" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A572" s="1" t="s">
+      <c r="A572" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="B572">
-        <v>1</v>
+      <c r="B572" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A573" s="6" t="s">
+      <c r="A573" s="5" t="s">
         <v>527</v>
       </c>
       <c r="B573" s="1">
@@ -7835,7 +7566,7 @@
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A574" s="6" t="s">
+      <c r="A574" s="5" t="s">
         <v>528</v>
       </c>
       <c r="B574" s="1">
@@ -7843,7 +7574,7 @@
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A575" s="6" t="s">
+      <c r="A575" s="5" t="s">
         <v>529</v>
       </c>
       <c r="B575" s="1">
@@ -7851,7 +7582,7 @@
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A576" s="6" t="s">
+      <c r="A576" s="5" t="s">
         <v>530</v>
       </c>
       <c r="B576" s="1">
@@ -7859,7 +7590,7 @@
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A577" s="6" t="s">
+      <c r="A577" s="5" t="s">
         <v>531</v>
       </c>
       <c r="B577" s="1">
@@ -7867,7 +7598,7 @@
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A578" s="6" t="s">
+      <c r="A578" s="5" t="s">
         <v>532</v>
       </c>
       <c r="B578" s="1">
@@ -7875,7 +7606,7 @@
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A579" s="6" t="s">
+      <c r="A579" s="5" t="s">
         <v>533</v>
       </c>
       <c r="B579" s="1">
@@ -7883,7 +7614,7 @@
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A580" s="6" t="s">
+      <c r="A580" s="5" t="s">
         <v>534</v>
       </c>
       <c r="B580" s="1">
@@ -7891,7 +7622,7 @@
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A581" s="6" t="s">
+      <c r="A581" s="5" t="s">
         <v>535</v>
       </c>
       <c r="B581" s="1">
@@ -7899,7 +7630,7 @@
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A582" s="6" t="s">
+      <c r="A582" s="5" t="s">
         <v>536</v>
       </c>
       <c r="B582" s="1">
@@ -7907,7 +7638,7 @@
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A583" s="6" t="s">
+      <c r="A583" s="5" t="s">
         <v>537</v>
       </c>
       <c r="B583" s="1">
@@ -7915,7 +7646,7 @@
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A584" s="6" t="s">
+      <c r="A584" s="5" t="s">
         <v>538</v>
       </c>
       <c r="B584" s="1">
@@ -7923,7 +7654,7 @@
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A585" s="6" t="s">
+      <c r="A585" s="5" t="s">
         <v>539</v>
       </c>
       <c r="B585" s="1">
@@ -7931,7 +7662,7 @@
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A586" s="6" t="s">
+      <c r="A586" s="5" t="s">
         <v>540</v>
       </c>
       <c r="B586" s="1">
@@ -7939,7 +7670,7 @@
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A587" s="6" t="s">
+      <c r="A587" s="5" t="s">
         <v>541</v>
       </c>
       <c r="B587" s="1">
@@ -7947,7 +7678,7 @@
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A588" s="6" t="s">
+      <c r="A588" s="5" t="s">
         <v>542</v>
       </c>
       <c r="B588" s="1">
@@ -7955,7 +7686,7 @@
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A589" s="6" t="s">
+      <c r="A589" s="5" t="s">
         <v>543</v>
       </c>
       <c r="B589" s="1">
@@ -7963,7 +7694,7 @@
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A590" s="6" t="s">
+      <c r="A590" s="5" t="s">
         <v>544</v>
       </c>
       <c r="B590" s="1">
@@ -7971,7 +7702,7 @@
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A591" s="6" t="s">
+      <c r="A591" s="5" t="s">
         <v>545</v>
       </c>
       <c r="B591" s="1">
@@ -7979,7 +7710,7 @@
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A592" s="6" t="s">
+      <c r="A592" s="5" t="s">
         <v>546</v>
       </c>
       <c r="B592" s="1">
@@ -7987,7 +7718,7 @@
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A593" s="6" t="s">
+      <c r="A593" s="5" t="s">
         <v>547</v>
       </c>
       <c r="B593" s="1">
@@ -7995,7 +7726,7 @@
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A594" s="6" t="s">
+      <c r="A594" s="5" t="s">
         <v>548</v>
       </c>
       <c r="B594" s="1">
@@ -8003,7 +7734,7 @@
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A595" s="6" t="s">
+      <c r="A595" s="5" t="s">
         <v>549</v>
       </c>
       <c r="B595" s="1">
@@ -8011,7 +7742,7 @@
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A596" s="6" t="s">
+      <c r="A596" s="5" t="s">
         <v>550</v>
       </c>
       <c r="B596" s="1">
@@ -8019,663 +7750,663 @@
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A597" s="6" t="s">
+      <c r="A597" s="5" t="s">
         <v>551</v>
       </c>
       <c r="B597" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A598" s="6" t="s">
+      <c r="A598" s="1" t="s">
         <v>552</v>
       </c>
       <c r="B598" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A599" s="6" t="s">
+      <c r="A599" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B599" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A600" s="6" t="s">
+      <c r="A600" s="1" t="s">
         <v>554</v>
       </c>
       <c r="B600" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A601" s="6" t="s">
+      <c r="A601" s="5" t="s">
         <v>555</v>
       </c>
       <c r="B601" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A602" s="6" t="s">
+      <c r="A602" s="1" t="s">
         <v>556</v>
       </c>
       <c r="B602" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A603" s="6" t="s">
+      <c r="A603" s="1" t="s">
         <v>557</v>
       </c>
       <c r="B603" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A604" s="6" t="s">
+      <c r="A604" s="1" t="s">
         <v>558</v>
       </c>
       <c r="B604" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A605" s="6" t="s">
+      <c r="A605" s="1" t="s">
         <v>559</v>
       </c>
       <c r="B605" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A606" s="6" t="s">
+      <c r="A606" s="5" t="s">
         <v>560</v>
       </c>
       <c r="B606" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A607" s="6" t="s">
+      <c r="A607" s="5" t="s">
         <v>561</v>
       </c>
       <c r="B607" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A608" s="6" t="s">
+      <c r="A608" s="1" t="s">
         <v>562</v>
       </c>
       <c r="B608" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A609" s="6" t="s">
+      <c r="A609" s="1" t="s">
         <v>563</v>
       </c>
       <c r="B609" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A610" s="6" t="s">
+      <c r="A610" s="1" t="s">
         <v>564</v>
       </c>
       <c r="B610" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A611" s="6" t="s">
+      <c r="A611" s="5" t="s">
         <v>565</v>
       </c>
       <c r="B611" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A612" s="6" t="s">
+      <c r="A612" s="5" t="s">
         <v>566</v>
       </c>
       <c r="B612" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A613" s="6" t="s">
+      <c r="A613" s="5" t="s">
         <v>567</v>
       </c>
       <c r="B613" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A614" s="6" t="s">
+      <c r="A614" s="5" t="s">
         <v>568</v>
       </c>
       <c r="B614" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A615" s="6" t="s">
+      <c r="A615" s="5" t="s">
         <v>569</v>
       </c>
       <c r="B615" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A616" s="6" t="s">
+      <c r="A616" s="5" t="s">
         <v>570</v>
       </c>
       <c r="B616" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A617" s="6" t="s">
+      <c r="A617" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="B617" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B617" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A618" s="6" t="s">
+      <c r="B618" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A619" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="B618" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A619" s="6" t="s">
+      <c r="B619" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="B619" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A620" s="6" t="s">
+      <c r="B620" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A621" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="B620" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A621" s="6" t="s">
+      <c r="B621" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A622" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="B621" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A622" s="6" t="s">
+      <c r="B622" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A623" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="B622" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A623" s="6" t="s">
+      <c r="B623" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A624" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="B623" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A624" s="6" t="s">
+      <c r="B624" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="B624" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A625" s="6" t="s">
+      <c r="B625" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="B625" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A626" s="6" t="s">
+      <c r="B626" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="B626" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A627" s="6" t="s">
+      <c r="B627" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="B627" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A628" s="6" t="s">
+      <c r="B628" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A629" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="B628" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A629" s="6" t="s">
+      <c r="B629" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="B629" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A630" s="6" t="s">
+      <c r="B630" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A631" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="B630" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A631" s="6" t="s">
+      <c r="B631" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="B631" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A632" s="6" t="s">
+      <c r="B632" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="B632" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A633" s="6" t="s">
+      <c r="B633" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="B633" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A634" s="6" t="s">
+      <c r="B634" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A635" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="B634" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A635" s="6" t="s">
+      <c r="B635" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A636" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="B635" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A636" s="6" t="s">
+      <c r="B636" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A637" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="B636" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A637" s="6" t="s">
+      <c r="B637" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A638" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="B637" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A638" s="6" t="s">
+      <c r="B638" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B638" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A639" s="6" t="s">
+      <c r="B639" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A640" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="B639" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A640" s="6" t="s">
+      <c r="B640" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A641" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="B640" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A641" s="6" t="s">
+      <c r="B641" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A642" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="B641" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A642" s="6" t="s">
+      <c r="B642" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A643" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="B642" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A643" s="6" t="s">
+      <c r="B643" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A644" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="B643" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A644" s="6" t="s">
+      <c r="B644" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A645" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="B644" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A645" s="6" t="s">
+      <c r="B645" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A646" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="B645" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A646" s="6" t="s">
+      <c r="B646" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="B646" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A647" s="6" t="s">
+      <c r="B647" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A648" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="B647" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A648" s="6" t="s">
+      <c r="B648" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A649" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="B648" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A649" s="6" t="s">
+      <c r="B649" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A650" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="B649" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A650" s="6" t="s">
+      <c r="B650" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A651" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="B650" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A651" s="6" t="s">
+      <c r="B651" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A652" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="B651" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A652" s="6" t="s">
+      <c r="B652" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A653" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="B652" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A653" s="1" t="s">
+      <c r="B653" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A654" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="B653" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A654" s="1" t="s">
+      <c r="B654" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A655" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="B654" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A655" s="1" t="s">
+      <c r="B655" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A656" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="B655" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A656" s="6" t="s">
+      <c r="B656" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A657" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="B656" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A657" s="1" t="s">
+      <c r="B657" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A658" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="B657" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A658" s="1" t="s">
+      <c r="B658" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A659" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="B658" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A659" s="1" t="s">
+      <c r="B659" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A660" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="B659" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A660" s="1" t="s">
+      <c r="B660" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A661" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="B660" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A661" s="6" t="s">
+      <c r="B661" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A662" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="B661" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A662" s="6" t="s">
+      <c r="B662" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A663" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="B662" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A663" s="1" t="s">
+      <c r="B663" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A664" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="B663" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A664" s="1" t="s">
+      <c r="B664" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A665" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="B664" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A665" s="1" t="s">
+      <c r="B665" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A666" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="B665" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A666" s="6" t="s">
+      <c r="B666" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A667" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="B666" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A667" s="6" t="s">
+      <c r="B667" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A668" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="B667" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A668" s="6" t="s">
+      <c r="B668" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A669" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="B668" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A669" s="6" t="s">
+      <c r="B669" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A670" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="B669" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A670" s="6" t="s">
+      <c r="B670" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A671" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="B670" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A671" s="6" t="s">
+      <c r="B671" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A672" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="B671" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A672" s="6" t="s">
+      <c r="B672" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A673" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="B672" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A673" s="6" t="s">
+      <c r="B673" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A674" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="B673" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A674" s="6" t="s">
+      <c r="B674" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A675" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="B674" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A675" s="6" t="s">
+      <c r="B675" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A676" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="B675" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A676" s="6" t="s">
+      <c r="B676" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A677" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="B676" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A677" s="6" t="s">
+      <c r="B677" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A678" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="B677" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A678" s="6" t="s">
-        <v>608</v>
-      </c>
       <c r="B678" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A679" s="1" t="s">
+      <c r="A679" s="5" t="s">
         <v>632</v>
       </c>
       <c r="B679" s="1">
@@ -8683,7 +8414,7 @@
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A680" s="6" t="s">
+      <c r="A680" s="5" t="s">
         <v>633</v>
       </c>
       <c r="B680" s="1">
@@ -8691,7 +8422,7 @@
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A681" s="1" t="s">
+      <c r="A681" s="5" t="s">
         <v>634</v>
       </c>
       <c r="B681" s="1">
@@ -8699,7 +8430,7 @@
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A682" s="6" t="s">
+      <c r="A682" s="5" t="s">
         <v>635</v>
       </c>
       <c r="B682" s="1">
@@ -8707,666 +8438,10 @@
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A683" s="6" t="s">
+      <c r="A683" s="5" t="s">
         <v>636</v>
       </c>
       <c r="B683" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A684" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="B684" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A685" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="B685" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A686" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="B686" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A687" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="B687" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A688" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="B688" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A689" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="B689" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A690" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="B690" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A691" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="B691" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A692" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="B692" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A693" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="B693" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A694" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="B694" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A695" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="B695" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A696" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="B696" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A697" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="B697" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A698" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="B698" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A699" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="B699" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A700" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="B700" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A701" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="B701" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A702" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="B702" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A703" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="B703" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A704" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="B704" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A705" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="B705" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A706" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="B706" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A707" s="6" t="s">
-        <v>660</v>
-      </c>
-      <c r="B707" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A708" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="B708" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A709" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="B709" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A710" s="6" t="s">
-        <v>663</v>
-      </c>
-      <c r="B710" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A711" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="B711" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A712" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="B712" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A713" s="6" t="s">
-        <v>666</v>
-      </c>
-      <c r="B713" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A714" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="B714" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A715" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="B715" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A716" s="6" t="s">
-        <v>669</v>
-      </c>
-      <c r="B716" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A717" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="B717" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A718" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="B718" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A719" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="B719" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A720" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="B720" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A721" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="B721" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A722" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="B722" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A723" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="B723" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A724" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="B724" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A725" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="B725" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A726" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="B726" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A727" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="B727" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A728" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="B728" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A729" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="B729" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A730" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="B730" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A731" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="B731" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A732" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="B732" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A733" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="B733" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A734" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="B734" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A735" s="6" t="s">
-        <v>688</v>
-      </c>
-      <c r="B735" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A736" s="6" t="s">
-        <v>689</v>
-      </c>
-      <c r="B736" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A737" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="B737" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A738" s="6" t="s">
-        <v>691</v>
-      </c>
-      <c r="B738" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A739" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="B739" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A740" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="B740" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A741" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="B741" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A742" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="B742" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A743" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="B743" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A744" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="B744" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A745" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="B745" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A746" s="6" t="s">
-        <v>699</v>
-      </c>
-      <c r="B746" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A747" s="6" t="s">
-        <v>700</v>
-      </c>
-      <c r="B747" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A748" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="B748" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A749" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="B749" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A750" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="B750" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A751" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="B751" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A752" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="B752" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A753" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="B753" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A754" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="B754" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A755" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="B755" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A756" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="B756" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A757" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="B757" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A758" s="6" t="s">
-        <v>711</v>
-      </c>
-      <c r="B758" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A759" s="6" t="s">
-        <v>712</v>
-      </c>
-      <c r="B759" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A760" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="B760" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A761" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="B761" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A762" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="B762" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A763" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="B763" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A764" s="6" t="s">
-        <v>717</v>
-      </c>
-      <c r="B764" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A765" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="B765" s="1">
         <v>1</v>
       </c>
     </row>
@@ -9458,27 +8533,21 @@
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ai/assets/textbook/grammar/chat_20200512.xlsx
+++ b/ai/assets/textbook/grammar/chat_20200512.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\AIChatFilter\service\ai-chatfilter-service\ai\assets\textbook\grammar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8196AC-8EA0-4C70-92C4-49522B3ED188}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725896D0-E4C0-4CDB-AA3F-9E718669449D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30210" yWindow="1950" windowWidth="27390" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21825" yWindow="2745" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="633">
   <si>
     <t>发言内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1176,9 +1176,6 @@
     <t>见好 徽  cap COU</t>
   </si>
   <si>
-    <t xml:space="preserve">逗引指引 特名义  </t>
-  </si>
-  <si>
     <t>格瑞特热线Buy Suo</t>
   </si>
   <si>
@@ -1262,10 +1259,6 @@
   </si>
   <si>
     <t>BMW ZEN</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>求中逗芸细由</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1373,9 +1366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4个字 天才老虎</t>
-  </si>
-  <si>
     <t>kan cctv</t>
   </si>
   <si>
@@ -1427,10 +1417,6 @@
   </si>
   <si>
     <t>dye zun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>? ○牛○才○华</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2333,27 +2319,7 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{812EBB8E-474D-40D3-8762-C1C694ABCC51}"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="34">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2970,10 +2936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B683"/>
+  <dimension ref="A1:B679"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
+      <selection activeCell="A421" sqref="A421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -6118,7 +6084,7 @@
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393" s="1" t="s">
+      <c r="A393" t="s">
         <v>366</v>
       </c>
       <c r="B393">
@@ -6127,7 +6093,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -6135,15 +6101,15 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B395">
         <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
-        <v>358</v>
+      <c r="A396" s="4" t="s">
+        <v>367</v>
       </c>
       <c r="B396">
         <v>1</v>
@@ -6159,22 +6125,22 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B398">
         <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" s="4" t="s">
-        <v>370</v>
+      <c r="A399" s="5" t="s">
+        <v>371</v>
       </c>
       <c r="B399">
         <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400" s="4" t="s">
+      <c r="A400" s="5" t="s">
         <v>372</v>
       </c>
       <c r="B400">
@@ -6495,7 +6461,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
-        <v>412</v>
+        <v>369</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -6503,7 +6469,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -6511,22 +6477,22 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B442">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443" s="5" t="s">
-        <v>371</v>
-      </c>
       <c r="B443">
         <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444" s="5" t="s">
+      <c r="A444" s="1" t="s">
         <v>415</v>
       </c>
       <c r="B444">
@@ -6534,16 +6500,16 @@
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A445" s="5" t="s">
-        <v>416</v>
+      <c r="A445" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="B445">
         <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446" s="5" t="s">
-        <v>417</v>
+      <c r="A446" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -6551,7 +6517,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -6559,7 +6525,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>419</v>
+        <v>358</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -6567,7 +6533,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -6575,7 +6541,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -6583,7 +6549,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>420</v>
+        <v>361</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -6591,7 +6557,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -6599,7 +6565,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -6607,7 +6573,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -6615,7 +6581,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -6623,7 +6589,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -6631,7 +6597,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>356</v>
+        <v>417</v>
       </c>
       <c r="B457">
         <v>1</v>
@@ -6639,30 +6605,30 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>357</v>
+        <v>418</v>
       </c>
       <c r="B458">
         <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A459" s="1" t="s">
-        <v>355</v>
+      <c r="A459" s="5" t="s">
+        <v>419</v>
       </c>
       <c r="B459">
         <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A460" s="1" t="s">
-        <v>354</v>
+      <c r="A460" s="5" t="s">
+        <v>420</v>
       </c>
       <c r="B460">
         <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A461" s="1" t="s">
+      <c r="A461" s="5" t="s">
         <v>421</v>
       </c>
       <c r="B461">
@@ -6670,7 +6636,7 @@
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A462" s="1" t="s">
+      <c r="A462" s="5" t="s">
         <v>422</v>
       </c>
       <c r="B462">
@@ -6799,7 +6765,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -6807,7 +6773,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -6815,7 +6781,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -6823,7 +6789,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -6951,7 +6917,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="5" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B497">
         <v>1</v>
@@ -6959,7 +6925,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B498">
         <v>1</v>
@@ -6967,7 +6933,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B499">
         <v>1</v>
@@ -6975,7 +6941,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B500">
         <v>1</v>
@@ -6983,39 +6949,39 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="5" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B501">
         <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A502" s="5" t="s">
+      <c r="A502" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B502">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A503" s="5" t="s">
-        <v>460</v>
-      </c>
       <c r="B503">
         <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A504" s="5" t="s">
-        <v>461</v>
+      <c r="A504" s="1" t="s">
+        <v>453</v>
       </c>
       <c r="B504">
         <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A505" s="5" t="s">
-        <v>462</v>
+      <c r="A505" s="1" t="s">
+        <v>454</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -7023,7 +6989,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B506">
         <v>1</v>
@@ -7031,7 +6997,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B507">
         <v>1</v>
@@ -7039,7 +7005,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B508">
         <v>1</v>
@@ -7047,7 +7013,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B509">
         <v>1</v>
@@ -7086,35 +7052,35 @@
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A514" s="1" t="s">
+      <c r="A514" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="B514">
-        <v>1</v>
+      <c r="B514" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A515" s="1" t="s">
+      <c r="A515" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="B515">
-        <v>1</v>
+      <c r="B515" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A516" s="1" t="s">
+      <c r="A516" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="B516">
-        <v>1</v>
+      <c r="B516" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A517" s="1" t="s">
+      <c r="A517" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="B517">
-        <v>1</v>
+      <c r="B517" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
@@ -7722,31 +7688,31 @@
         <v>547</v>
       </c>
       <c r="B593" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A594" s="5" t="s">
+      <c r="A594" s="1" t="s">
         <v>548</v>
       </c>
       <c r="B594" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A595" s="5" t="s">
+      <c r="A595" s="1" t="s">
         <v>549</v>
       </c>
       <c r="B595" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A596" s="5" t="s">
+      <c r="A596" s="1" t="s">
         <v>550</v>
       </c>
       <c r="B596" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
@@ -7782,7 +7748,7 @@
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A601" s="5" t="s">
+      <c r="A601" s="1" t="s">
         <v>555</v>
       </c>
       <c r="B601" s="1">
@@ -7790,7 +7756,7 @@
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A602" s="1" t="s">
+      <c r="A602" s="5" t="s">
         <v>556</v>
       </c>
       <c r="B602" s="1">
@@ -7798,7 +7764,7 @@
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A603" s="1" t="s">
+      <c r="A603" s="5" t="s">
         <v>557</v>
       </c>
       <c r="B603" s="1">
@@ -7822,7 +7788,7 @@
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A606" s="5" t="s">
+      <c r="A606" s="1" t="s">
         <v>560</v>
       </c>
       <c r="B606" s="1">
@@ -7838,7 +7804,7 @@
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A608" s="1" t="s">
+      <c r="A608" s="5" t="s">
         <v>562</v>
       </c>
       <c r="B608" s="1">
@@ -7846,7 +7812,7 @@
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A609" s="1" t="s">
+      <c r="A609" s="5" t="s">
         <v>563</v>
       </c>
       <c r="B609" s="1">
@@ -7854,7 +7820,7 @@
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A610" s="1" t="s">
+      <c r="A610" s="5" t="s">
         <v>564</v>
       </c>
       <c r="B610" s="1">
@@ -7879,15 +7845,15 @@
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B613" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A614" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="B613" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A614" s="5" t="s">
-        <v>568</v>
       </c>
       <c r="B614" s="1">
         <v>1</v>
@@ -7895,7 +7861,7 @@
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B615" s="1">
         <v>1</v>
@@ -7903,7 +7869,7 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B616" s="1">
         <v>1</v>
@@ -7911,14 +7877,14 @@
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="5" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="B617" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A618" s="1" t="s">
+      <c r="A618" s="5" t="s">
         <v>571</v>
       </c>
       <c r="B618" s="1">
@@ -8410,38 +8376,6 @@
         <v>632</v>
       </c>
       <c r="B679" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A680" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="B680" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A681" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="B681" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A682" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="B682" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A683" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="B683" s="1">
         <v>1</v>
       </c>
     </row>
@@ -8449,88 +8383,88 @@
   <autoFilter ref="A1:B1" xr:uid="{B22D9D08-154F-47A3-8315-1D2664EED49E}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:A4">
-    <cfRule type="duplicateValues" dxfId="35" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="34" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="33" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="31" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="30" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="29" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
